--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3677,28 +3677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2490.316833087629</v>
+        <v>2587.796297142483</v>
       </c>
       <c r="AB2" t="n">
-        <v>3407.36135605548</v>
+        <v>3540.737059265779</v>
       </c>
       <c r="AC2" t="n">
-        <v>3082.167570495115</v>
+        <v>3202.814083784994</v>
       </c>
       <c r="AD2" t="n">
-        <v>2490316.833087629</v>
+        <v>2587796.297142483</v>
       </c>
       <c r="AE2" t="n">
-        <v>3407361.35605548</v>
+        <v>3540737.059265779</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.024838103225391e-06</v>
+        <v>1.896218808370085e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.82708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3082167.570495115</v>
+        <v>3202814.083784994</v>
       </c>
     </row>
     <row r="3">
@@ -3783,28 +3783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>846.3979130125819</v>
+        <v>907.2052343718296</v>
       </c>
       <c r="AB3" t="n">
-        <v>1158.078965024381</v>
+        <v>1241.278224737792</v>
       </c>
       <c r="AC3" t="n">
-        <v>1047.553533976489</v>
+        <v>1122.812373113746</v>
       </c>
       <c r="AD3" t="n">
-        <v>846397.9130125819</v>
+        <v>907205.2343718297</v>
       </c>
       <c r="AE3" t="n">
-        <v>1158078.965024381</v>
+        <v>1241278.224737792</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.918526106123433e-06</v>
+        <v>3.549775594145906e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.920833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1047553.533976489</v>
+        <v>1122812.373113746</v>
       </c>
     </row>
     <row r="4">
@@ -3889,28 +3889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>653.4702819093633</v>
+        <v>702.1673435095045</v>
       </c>
       <c r="AB4" t="n">
-        <v>894.1068687825755</v>
+        <v>960.7363368266224</v>
       </c>
       <c r="AC4" t="n">
-        <v>808.7745641128375</v>
+        <v>869.0450092418064</v>
       </c>
       <c r="AD4" t="n">
-        <v>653470.2819093632</v>
+        <v>702167.3435095045</v>
       </c>
       <c r="AE4" t="n">
-        <v>894106.8687825755</v>
+        <v>960736.3368266224</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.242973072895429e-06</v>
+        <v>4.150087427571539e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.775000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>808774.5641128375</v>
+        <v>869045.0092418063</v>
       </c>
     </row>
     <row r="5">
@@ -3995,28 +3995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>581.4324291353124</v>
+        <v>617.9339796303263</v>
       </c>
       <c r="AB5" t="n">
-        <v>795.5415005313531</v>
+        <v>845.4845322533871</v>
       </c>
       <c r="AC5" t="n">
-        <v>719.6161362701484</v>
+        <v>764.792675140117</v>
       </c>
       <c r="AD5" t="n">
-        <v>581432.4291353124</v>
+        <v>617933.9796303264</v>
       </c>
       <c r="AE5" t="n">
-        <v>795541.5005313531</v>
+        <v>845484.5322533872</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.412782546511707e-06</v>
+        <v>4.464279412332076e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.297916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>719616.1362701484</v>
+        <v>764792.6751401171</v>
       </c>
     </row>
     <row r="6">
@@ -4101,28 +4101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>522.1885149527052</v>
+        <v>570.8002356982748</v>
       </c>
       <c r="AB6" t="n">
-        <v>714.4813634896786</v>
+        <v>780.9940644115279</v>
       </c>
       <c r="AC6" t="n">
-        <v>646.2922649391148</v>
+        <v>706.4570870361448</v>
       </c>
       <c r="AD6" t="n">
-        <v>522188.5149527052</v>
+        <v>570800.2356982748</v>
       </c>
       <c r="AE6" t="n">
-        <v>714481.3634896786</v>
+        <v>780994.0644115279</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.533866621341184e-06</v>
+        <v>4.688316652324556e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.996875</v>
       </c>
       <c r="AH6" t="n">
-        <v>646292.2649391148</v>
+        <v>706457.0870361448</v>
       </c>
     </row>
     <row r="7">
@@ -4207,28 +4207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>504.3615724483922</v>
+        <v>540.9483742894267</v>
       </c>
       <c r="AB7" t="n">
-        <v>690.0897542860804</v>
+        <v>740.1494306607639</v>
       </c>
       <c r="AC7" t="n">
-        <v>624.2285566840694</v>
+        <v>669.5106078047502</v>
       </c>
       <c r="AD7" t="n">
-        <v>504361.5724483922</v>
+        <v>540948.3742894267</v>
       </c>
       <c r="AE7" t="n">
-        <v>690089.7542860804</v>
+        <v>740149.4306607639</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.577340180737791e-06</v>
+        <v>4.768754119213422e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.895833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>624228.5566840695</v>
+        <v>669510.6078047502</v>
       </c>
     </row>
     <row r="8">
@@ -4313,28 +4313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>478.9299845697337</v>
+        <v>515.5167864107682</v>
       </c>
       <c r="AB8" t="n">
-        <v>655.2931337880268</v>
+        <v>705.3528101627103</v>
       </c>
       <c r="AC8" t="n">
-        <v>592.7528768089866</v>
+        <v>638.0349279296672</v>
       </c>
       <c r="AD8" t="n">
-        <v>478929.9845697337</v>
+        <v>515516.7864107682</v>
       </c>
       <c r="AE8" t="n">
-        <v>655293.1337880268</v>
+        <v>705352.8101627103</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.639632831282594e-06</v>
+        <v>4.884011831836059e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.757291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>592752.8768089865</v>
+        <v>638034.9279296672</v>
       </c>
     </row>
     <row r="9">
@@ -4419,28 +4419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>458.6455687049238</v>
+        <v>495.2323705459584</v>
       </c>
       <c r="AB9" t="n">
-        <v>627.5391011165239</v>
+        <v>677.5987774912074</v>
       </c>
       <c r="AC9" t="n">
-        <v>567.6476500626222</v>
+        <v>612.929701183303</v>
       </c>
       <c r="AD9" t="n">
-        <v>458645.5687049238</v>
+        <v>495232.3705459584</v>
       </c>
       <c r="AE9" t="n">
-        <v>627539.1011165238</v>
+        <v>677598.7774912075</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.685148772664277e-06</v>
+        <v>4.96822824012239e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.659375</v>
       </c>
       <c r="AH9" t="n">
-        <v>567647.6500626223</v>
+        <v>612929.701183303</v>
       </c>
     </row>
     <row r="10">
@@ -4525,28 +4525,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>436.6343279582771</v>
+        <v>473.2211297993117</v>
       </c>
       <c r="AB10" t="n">
-        <v>597.4223504595545</v>
+        <v>647.482026834238</v>
       </c>
       <c r="AC10" t="n">
-        <v>540.405199819229</v>
+        <v>585.6872509399099</v>
       </c>
       <c r="AD10" t="n">
-        <v>436634.3279582771</v>
+        <v>473221.1297993116</v>
       </c>
       <c r="AE10" t="n">
-        <v>597422.3504595546</v>
+        <v>647482.026834238</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.731977673893509e-06</v>
+        <v>5.054873967878517e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.5625</v>
       </c>
       <c r="AH10" t="n">
-        <v>540405.199819229</v>
+        <v>585687.2509399098</v>
       </c>
     </row>
     <row r="11">
@@ -4631,28 +4631,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>428.0842858177197</v>
+        <v>464.6710876587541</v>
       </c>
       <c r="AB11" t="n">
-        <v>585.7238056016062</v>
+        <v>635.7834819762895</v>
       </c>
       <c r="AC11" t="n">
-        <v>529.8231476635124</v>
+        <v>575.1051987841931</v>
       </c>
       <c r="AD11" t="n">
-        <v>428084.2858177196</v>
+        <v>464671.0876587541</v>
       </c>
       <c r="AE11" t="n">
-        <v>585723.8056016061</v>
+        <v>635783.4819762895</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.7398554329788e-06</v>
+        <v>5.069449884697305e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.545833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>529823.1476635124</v>
+        <v>575105.1987841931</v>
       </c>
     </row>
     <row r="12">
@@ -4737,28 +4737,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>422.9675528729032</v>
+        <v>459.5543547139377</v>
       </c>
       <c r="AB12" t="n">
-        <v>578.7228658521823</v>
+        <v>628.7825422268656</v>
       </c>
       <c r="AC12" t="n">
-        <v>523.4903677778929</v>
+        <v>568.7724188985736</v>
       </c>
       <c r="AD12" t="n">
-        <v>422967.5528729032</v>
+        <v>459554.3547139377</v>
       </c>
       <c r="AE12" t="n">
-        <v>578722.8658521823</v>
+        <v>628782.5422268657</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.748316729774113e-06</v>
+        <v>5.085105499058225e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.529166666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>523490.3677778929</v>
+        <v>568772.4188985736</v>
       </c>
     </row>
     <row r="13">
@@ -4843,28 +4843,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>424.3587837822083</v>
+        <v>460.9455856232428</v>
       </c>
       <c r="AB13" t="n">
-        <v>580.6264093590695</v>
+        <v>630.686085733753</v>
       </c>
       <c r="AC13" t="n">
-        <v>525.2122397641228</v>
+        <v>570.4942908848036</v>
       </c>
       <c r="AD13" t="n">
-        <v>424358.7837822083</v>
+        <v>460945.5856232428</v>
       </c>
       <c r="AE13" t="n">
-        <v>580626.4093590695</v>
+        <v>630686.0857337529</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.748170845346607e-06</v>
+        <v>5.084835574672692e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.529166666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>525212.2397641229</v>
+        <v>570494.2908848036</v>
       </c>
     </row>
   </sheetData>
@@ -5140,28 +5140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1505.046852999328</v>
+        <v>1575.629125795632</v>
       </c>
       <c r="AB2" t="n">
-        <v>2059.271502254701</v>
+        <v>2155.845281764713</v>
       </c>
       <c r="AC2" t="n">
-        <v>1862.737520285218</v>
+        <v>1950.094433820945</v>
       </c>
       <c r="AD2" t="n">
-        <v>1505046.852999328</v>
+        <v>1575629.125795632</v>
       </c>
       <c r="AE2" t="n">
-        <v>2059271.502254701</v>
+        <v>2155845.281764713</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.349485499742858e-06</v>
+        <v>2.572327631843973e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.64895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1862737.520285218</v>
+        <v>1950094.433820945</v>
       </c>
     </row>
     <row r="3">
@@ -5246,28 +5246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>672.3892061500125</v>
+        <v>707.6804320567152</v>
       </c>
       <c r="AB3" t="n">
-        <v>919.9925755726632</v>
+        <v>968.2795877972175</v>
       </c>
       <c r="AC3" t="n">
-        <v>832.1897753776967</v>
+        <v>875.8683429267871</v>
       </c>
       <c r="AD3" t="n">
-        <v>672389.2061500124</v>
+        <v>707680.4320567151</v>
       </c>
       <c r="AE3" t="n">
-        <v>919992.5755726632</v>
+        <v>968279.5877972174</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.166541471070059e-06</v>
+        <v>4.129762411401485e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.256249999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>832189.7753776967</v>
+        <v>875868.3429267871</v>
       </c>
     </row>
     <row r="4">
@@ -5352,28 +5352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>537.9111624368036</v>
+        <v>573.1170474889348</v>
       </c>
       <c r="AB4" t="n">
-        <v>735.9937834116746</v>
+        <v>784.1640285140314</v>
       </c>
       <c r="AC4" t="n">
-        <v>665.7515696966265</v>
+        <v>709.3245142137779</v>
       </c>
       <c r="AD4" t="n">
-        <v>537911.1624368036</v>
+        <v>573117.0474889347</v>
       </c>
       <c r="AE4" t="n">
-        <v>735993.7834116746</v>
+        <v>784164.0285140314</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.459770091736618e-06</v>
+        <v>4.68870141706832e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>665751.5696966265</v>
+        <v>709324.5142137778</v>
       </c>
     </row>
     <row r="5">
@@ -5458,28 +5458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>469.6448065269926</v>
+        <v>516.5289733487183</v>
       </c>
       <c r="AB5" t="n">
-        <v>642.5887435568037</v>
+        <v>706.7377289857498</v>
       </c>
       <c r="AC5" t="n">
-        <v>581.2609757507075</v>
+        <v>639.2876720439815</v>
       </c>
       <c r="AD5" t="n">
-        <v>469644.8065269926</v>
+        <v>516528.9733487183</v>
       </c>
       <c r="AE5" t="n">
-        <v>642588.7435568037</v>
+        <v>706737.7289857498</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.620193161097684e-06</v>
+        <v>4.994492545747603e-06</v>
       </c>
       <c r="AG5" t="n">
         <v>6</v>
       </c>
       <c r="AH5" t="n">
-        <v>581260.9757507076</v>
+        <v>639287.6720439815</v>
       </c>
     </row>
     <row r="6">
@@ -5564,28 +5564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>444.5312101827375</v>
+        <v>479.8223465808893</v>
       </c>
       <c r="AB6" t="n">
-        <v>608.2272131049173</v>
+        <v>656.5141028599235</v>
       </c>
       <c r="AC6" t="n">
-        <v>550.1788615384384</v>
+        <v>593.8573183063021</v>
       </c>
       <c r="AD6" t="n">
-        <v>444531.2101827376</v>
+        <v>479822.3465808893</v>
       </c>
       <c r="AE6" t="n">
-        <v>608227.2131049173</v>
+        <v>656514.1028599235</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.685841359754377e-06</v>
+        <v>5.119628144031223e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.853124999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>550178.8615384384</v>
+        <v>593857.3183063021</v>
       </c>
     </row>
     <row r="7">
@@ -5670,28 +5670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>413.2324036469014</v>
+        <v>448.523540045053</v>
       </c>
       <c r="AB7" t="n">
-        <v>565.4028051966943</v>
+        <v>613.6896949517004</v>
       </c>
       <c r="AC7" t="n">
-        <v>511.4415550165421</v>
+        <v>555.1200117844058</v>
       </c>
       <c r="AD7" t="n">
-        <v>413232.4036469014</v>
+        <v>448523.540045053</v>
       </c>
       <c r="AE7" t="n">
-        <v>565402.8051966943</v>
+        <v>613689.6949517004</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.770203067913207e-06</v>
+        <v>5.280434579526725e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.675</v>
       </c>
       <c r="AH7" t="n">
-        <v>511441.5550165421</v>
+        <v>555120.0117844058</v>
       </c>
     </row>
     <row r="8">
@@ -5776,28 +5776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>392.0740395308793</v>
+        <v>427.365175929031</v>
       </c>
       <c r="AB8" t="n">
-        <v>536.452997972007</v>
+        <v>584.7398877270131</v>
       </c>
       <c r="AC8" t="n">
-        <v>485.2546767620693</v>
+        <v>528.933133529933</v>
       </c>
       <c r="AD8" t="n">
-        <v>392074.0395308793</v>
+        <v>427365.175929031</v>
       </c>
       <c r="AE8" t="n">
-        <v>536452.997972007</v>
+        <v>584739.8877270131</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.817439587866183e-06</v>
+        <v>5.370474676682525e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.579166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>485254.6767620693</v>
+        <v>528933.1335299331</v>
       </c>
     </row>
     <row r="9">
@@ -5882,28 +5882,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>386.5807310555479</v>
+        <v>421.8718674536995</v>
       </c>
       <c r="AB9" t="n">
-        <v>528.9368109683926</v>
+        <v>577.2237007233987</v>
       </c>
       <c r="AC9" t="n">
-        <v>478.4558240970453</v>
+        <v>522.134280864909</v>
       </c>
       <c r="AD9" t="n">
-        <v>386580.7310555478</v>
+        <v>421871.8674536995</v>
       </c>
       <c r="AE9" t="n">
-        <v>528936.8109683926</v>
+        <v>577223.7007233987</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.828003665810938e-06</v>
+        <v>5.390611439624717e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.558333333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>478455.8240970452</v>
+        <v>522134.2808649089</v>
       </c>
     </row>
     <row r="10">
@@ -5988,28 +5988,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>387.9236277596473</v>
+        <v>423.214764157799</v>
       </c>
       <c r="AB10" t="n">
-        <v>530.7742214833628</v>
+        <v>579.0611112383689</v>
       </c>
       <c r="AC10" t="n">
-        <v>480.1178747312885</v>
+        <v>523.7963314991522</v>
       </c>
       <c r="AD10" t="n">
-        <v>387923.6277596473</v>
+        <v>423214.764157799</v>
       </c>
       <c r="AE10" t="n">
-        <v>530774.2214833628</v>
+        <v>579061.1112383689</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.829210989004625e-06</v>
+        <v>5.392912783960967e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.556250000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>480117.8747312885</v>
+        <v>523796.3314991522</v>
       </c>
     </row>
   </sheetData>
@@ -6285,28 +6285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>495.3611100371373</v>
+        <v>537.0442878013085</v>
       </c>
       <c r="AB2" t="n">
-        <v>677.7749245426238</v>
+        <v>734.8076872915807</v>
       </c>
       <c r="AC2" t="n">
-        <v>613.0890370073562</v>
+        <v>664.6786729255379</v>
       </c>
       <c r="AD2" t="n">
-        <v>495361.1100371373</v>
+        <v>537044.2878013086</v>
       </c>
       <c r="AE2" t="n">
-        <v>677774.9245426238</v>
+        <v>734807.6872915807</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.367193184480276e-06</v>
+        <v>5.041501981540629e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.410416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>613089.0370073562</v>
+        <v>664678.6729255378</v>
       </c>
     </row>
     <row r="3">
@@ -6391,28 +6391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>314.5014629458188</v>
+        <v>345.8917904193914</v>
       </c>
       <c r="AB3" t="n">
-        <v>430.3147764277795</v>
+        <v>473.2644073206322</v>
       </c>
       <c r="AC3" t="n">
-        <v>389.2461381160932</v>
+        <v>428.0967165167178</v>
       </c>
       <c r="AD3" t="n">
-        <v>314501.4629458188</v>
+        <v>345891.7904193914</v>
       </c>
       <c r="AE3" t="n">
-        <v>430314.7764277795</v>
+        <v>473264.4073206323</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.954402591486233e-06</v>
+        <v>6.292104344038471e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.9375</v>
       </c>
       <c r="AH3" t="n">
-        <v>389246.1381160932</v>
+        <v>428096.7165167179</v>
       </c>
     </row>
     <row r="4">
@@ -6497,28 +6497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>300.2822505694999</v>
+        <v>331.6725780430725</v>
       </c>
       <c r="AB4" t="n">
-        <v>410.8594227471232</v>
+        <v>453.809053639976</v>
       </c>
       <c r="AC4" t="n">
-        <v>371.6475760849584</v>
+        <v>410.498154485583</v>
       </c>
       <c r="AD4" t="n">
-        <v>300282.2505694999</v>
+        <v>331672.5780430725</v>
       </c>
       <c r="AE4" t="n">
-        <v>410859.4227471232</v>
+        <v>453809.053639976</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.017215642479414e-06</v>
+        <v>6.425879704294192e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.813541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>371647.5760849584</v>
+        <v>410498.154485583</v>
       </c>
     </row>
   </sheetData>
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>738.5356441722113</v>
+        <v>782.5081692115842</v>
       </c>
       <c r="AB2" t="n">
-        <v>1010.497050249527</v>
+        <v>1070.662198939288</v>
       </c>
       <c r="AC2" t="n">
-        <v>914.0566300152284</v>
+        <v>968.4797013563556</v>
       </c>
       <c r="AD2" t="n">
-        <v>738535.6441722113</v>
+        <v>782508.1692115843</v>
       </c>
       <c r="AE2" t="n">
-        <v>1010497.050249527</v>
+        <v>1070662.198939288</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.9577182373667e-06</v>
+        <v>3.974844867034831e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.571875</v>
       </c>
       <c r="AH2" t="n">
-        <v>914056.6300152284</v>
+        <v>968479.7013563556</v>
       </c>
     </row>
     <row r="3">
@@ -6900,28 +6900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>437.1380545356004</v>
+        <v>469.9681913281809</v>
       </c>
       <c r="AB3" t="n">
-        <v>598.1115713854965</v>
+        <v>643.0312129085202</v>
       </c>
       <c r="AC3" t="n">
-        <v>541.0286424673267</v>
+        <v>581.6612164485058</v>
       </c>
       <c r="AD3" t="n">
-        <v>437138.0545356004</v>
+        <v>469968.1913281809</v>
       </c>
       <c r="AE3" t="n">
-        <v>598111.5713854965</v>
+        <v>643031.2129085201</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.630965810931169e-06</v>
+        <v>5.341770204373421e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.378125</v>
       </c>
       <c r="AH3" t="n">
-        <v>541028.6424673267</v>
+        <v>581661.2164485058</v>
       </c>
     </row>
     <row r="4">
@@ -7006,28 +7006,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>354.4185022489025</v>
+        <v>387.3338903875036</v>
       </c>
       <c r="AB4" t="n">
-        <v>484.9310306177465</v>
+        <v>529.9673167934193</v>
       </c>
       <c r="AC4" t="n">
-        <v>438.649893660564</v>
+        <v>479.3879798924553</v>
       </c>
       <c r="AD4" t="n">
-        <v>354418.5022489025</v>
+        <v>387333.8903875035</v>
       </c>
       <c r="AE4" t="n">
-        <v>484931.0306177465</v>
+        <v>529967.3167934193</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.884863436185442e-06</v>
+        <v>5.857270164087616e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.816666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>438649.893660564</v>
+        <v>479387.9798924553</v>
       </c>
     </row>
     <row r="5">
@@ -7112,28 +7112,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>330.1554432452739</v>
+        <v>363.070831383875</v>
       </c>
       <c r="AB5" t="n">
-        <v>451.7332428783644</v>
+        <v>496.7695290540372</v>
       </c>
       <c r="AC5" t="n">
-        <v>408.6204561896409</v>
+        <v>449.358542421532</v>
       </c>
       <c r="AD5" t="n">
-        <v>330155.443245274</v>
+        <v>363070.831383875</v>
       </c>
       <c r="AE5" t="n">
-        <v>451733.2428783644</v>
+        <v>496769.5290540372</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.956554072757873e-06</v>
+        <v>6.002826942052601e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.676041666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>408620.4561896409</v>
+        <v>449358.542421532</v>
       </c>
     </row>
     <row r="6">
@@ -7218,28 +7218,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>330.3327944443826</v>
+        <v>363.2481825829836</v>
       </c>
       <c r="AB6" t="n">
-        <v>451.9759026131674</v>
+        <v>497.0121887888402</v>
       </c>
       <c r="AC6" t="n">
-        <v>408.8399568199294</v>
+        <v>449.5780430518206</v>
       </c>
       <c r="AD6" t="n">
-        <v>330332.7944443825</v>
+        <v>363248.1825829836</v>
       </c>
       <c r="AE6" t="n">
-        <v>451975.9026131674</v>
+        <v>497012.1887888402</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.961870457043019e-06</v>
+        <v>6.013621040193825e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.665624999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>408839.9568199294</v>
+        <v>449578.0430518206</v>
       </c>
     </row>
   </sheetData>
@@ -7515,28 +7515,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>349.8174988984492</v>
+        <v>389.9181112318516</v>
       </c>
       <c r="AB2" t="n">
-        <v>478.6357348517141</v>
+        <v>533.5031617604335</v>
       </c>
       <c r="AC2" t="n">
-        <v>432.9554120869388</v>
+        <v>482.5863687784073</v>
       </c>
       <c r="AD2" t="n">
-        <v>349817.4988984492</v>
+        <v>389918.1112318516</v>
       </c>
       <c r="AE2" t="n">
-        <v>478635.7348517141</v>
+        <v>533503.1617604335</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.728570510431592e-06</v>
+        <v>6.075993571312628e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.677083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>432955.4120869388</v>
+        <v>482586.3687784073</v>
       </c>
     </row>
     <row r="3">
@@ -7621,28 +7621,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>288.7662855634366</v>
+        <v>318.8204991083965</v>
       </c>
       <c r="AB3" t="n">
-        <v>395.1027713773075</v>
+        <v>436.224272247846</v>
       </c>
       <c r="AC3" t="n">
-        <v>357.394717407279</v>
+        <v>394.5916399491222</v>
       </c>
       <c r="AD3" t="n">
-        <v>288766.2855634366</v>
+        <v>318820.4991083965</v>
       </c>
       <c r="AE3" t="n">
-        <v>395102.7713773075</v>
+        <v>436224.272247846</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.022747524632344e-06</v>
+        <v>6.73106832209449e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.027083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>357394.7174072789</v>
+        <v>394591.6399491222</v>
       </c>
     </row>
   </sheetData>
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1700.071092710305</v>
+        <v>1771.249223329836</v>
       </c>
       <c r="AB2" t="n">
-        <v>2326.112270889486</v>
+        <v>2423.501329360629</v>
       </c>
       <c r="AC2" t="n">
-        <v>2104.111380474869</v>
+        <v>2192.205763891929</v>
       </c>
       <c r="AD2" t="n">
-        <v>1700071.092710305</v>
+        <v>1771249.223329836</v>
       </c>
       <c r="AE2" t="n">
-        <v>2326112.270889486</v>
+        <v>2423501.329360629</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.264826695874906e-06</v>
+        <v>2.391488363664526e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.31666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2104111.380474869</v>
+        <v>2192205.763891929</v>
       </c>
     </row>
     <row r="3">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>713.1383540801858</v>
+        <v>760.4766831899609</v>
       </c>
       <c r="AB3" t="n">
-        <v>975.7473574962554</v>
+        <v>1040.517747803937</v>
       </c>
       <c r="AC3" t="n">
-        <v>882.6233991668295</v>
+        <v>941.2121943293596</v>
       </c>
       <c r="AD3" t="n">
-        <v>713138.3540801858</v>
+        <v>760476.6831899609</v>
       </c>
       <c r="AE3" t="n">
-        <v>975747.3574962554</v>
+        <v>1040517.747803937</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.101613424433507e-06</v>
+        <v>3.973654308408883e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.413541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>882623.3991668294</v>
+        <v>941212.1943293596</v>
       </c>
     </row>
     <row r="4">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>565.4031816123878</v>
+        <v>600.9496212491428</v>
       </c>
       <c r="AB4" t="n">
-        <v>773.6095769099956</v>
+        <v>822.2457838192427</v>
       </c>
       <c r="AC4" t="n">
-        <v>699.7773646575653</v>
+        <v>743.7718002407388</v>
       </c>
       <c r="AD4" t="n">
-        <v>565403.1816123878</v>
+        <v>600949.6212491428</v>
       </c>
       <c r="AE4" t="n">
-        <v>773609.5769099955</v>
+        <v>822245.7838192426</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.404920571085312e-06</v>
+        <v>4.547136441731771e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.478124999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>699777.3646575653</v>
+        <v>743771.8002407388</v>
       </c>
     </row>
     <row r="5">
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>506.7725128122949</v>
+        <v>542.3189524490497</v>
       </c>
       <c r="AB5" t="n">
-        <v>693.3885092551542</v>
+        <v>742.0247161644013</v>
       </c>
       <c r="AC5" t="n">
-        <v>627.2124831087265</v>
+        <v>671.2069186918999</v>
       </c>
       <c r="AD5" t="n">
-        <v>506772.5128122949</v>
+        <v>542318.9524490497</v>
       </c>
       <c r="AE5" t="n">
-        <v>693388.5092551542</v>
+        <v>742024.7161644013</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.56360345205058e-06</v>
+        <v>4.847168267893301e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.077083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>627212.4831087264</v>
+        <v>671206.9186918999</v>
       </c>
     </row>
     <row r="6">
@@ -8342,28 +8342,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>480.8243942421418</v>
+        <v>528.1626338433659</v>
       </c>
       <c r="AB6" t="n">
-        <v>657.8851486772719</v>
+        <v>722.655416515405</v>
       </c>
       <c r="AC6" t="n">
-        <v>595.0975134351178</v>
+        <v>653.6861978164212</v>
       </c>
       <c r="AD6" t="n">
-        <v>480824.3942421418</v>
+        <v>528162.6338433659</v>
       </c>
       <c r="AE6" t="n">
-        <v>657885.1486772719</v>
+        <v>722655.4165154051</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.597403952614341e-06</v>
+        <v>4.911077026340526e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.997916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>595097.5134351178</v>
+        <v>653686.1978164212</v>
       </c>
     </row>
     <row r="7">
@@ -8448,28 +8448,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>436.3243218823721</v>
+        <v>471.9560128651476</v>
       </c>
       <c r="AB7" t="n">
-        <v>596.9981864699985</v>
+        <v>645.7510380318947</v>
       </c>
       <c r="AC7" t="n">
-        <v>540.0215174455183</v>
+        <v>584.1214652794042</v>
       </c>
       <c r="AD7" t="n">
-        <v>436324.3218823721</v>
+        <v>471956.0128651476</v>
       </c>
       <c r="AE7" t="n">
-        <v>596998.1864699984</v>
+        <v>645751.0380318947</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.720491616171755e-06</v>
+        <v>5.143806708650553e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.726041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>540021.5174455183</v>
+        <v>584121.4652794042</v>
       </c>
     </row>
     <row r="8">
@@ -8554,28 +8554,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>413.3852484826511</v>
+        <v>449.0169394654267</v>
       </c>
       <c r="AB8" t="n">
-        <v>565.6119342440054</v>
+        <v>614.3647858059018</v>
       </c>
       <c r="AC8" t="n">
-        <v>511.6307250810922</v>
+        <v>555.7306729149781</v>
       </c>
       <c r="AD8" t="n">
-        <v>413385.2484826511</v>
+        <v>449016.9394654267</v>
       </c>
       <c r="AE8" t="n">
-        <v>565611.9342440054</v>
+        <v>614364.7858059017</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.772388844913459e-06</v>
+        <v>5.241932103257577e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.619791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>511630.7250810922</v>
+        <v>555730.6729149781</v>
       </c>
     </row>
     <row r="9">
@@ -8660,28 +8660,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>395.5456451250081</v>
+        <v>431.1773361077837</v>
       </c>
       <c r="AB9" t="n">
-        <v>541.2030019023236</v>
+        <v>589.9558534642202</v>
       </c>
       <c r="AC9" t="n">
-        <v>489.5513469839491</v>
+        <v>533.6512948178348</v>
       </c>
       <c r="AD9" t="n">
-        <v>395545.6451250081</v>
+        <v>431177.3361077837</v>
       </c>
       <c r="AE9" t="n">
-        <v>541203.0019023237</v>
+        <v>589955.8534642202</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.808582301269345e-06</v>
+        <v>5.310365375577171e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.546875</v>
       </c>
       <c r="AH9" t="n">
-        <v>489551.3469839491</v>
+        <v>533651.2948178349</v>
       </c>
     </row>
     <row r="10">
@@ -8766,28 +8766,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>394.1192623705144</v>
+        <v>429.7509533532898</v>
       </c>
       <c r="AB10" t="n">
-        <v>539.2513620900594</v>
+        <v>588.0042136519559</v>
       </c>
       <c r="AC10" t="n">
-        <v>487.7859689362236</v>
+        <v>531.8859167701095</v>
       </c>
       <c r="AD10" t="n">
-        <v>394119.2623705144</v>
+        <v>429750.9533532899</v>
       </c>
       <c r="AE10" t="n">
-        <v>539251.3620900594</v>
+        <v>588004.2136519558</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.812769973905563e-06</v>
+        <v>5.318283274853819e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.538541666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>487785.9689362237</v>
+        <v>531885.9167701094</v>
       </c>
     </row>
     <row r="11">
@@ -8872,28 +8872,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>395.7232026655916</v>
+        <v>431.3548936483671</v>
       </c>
       <c r="AB11" t="n">
-        <v>541.4459439626359</v>
+        <v>590.1987955245322</v>
       </c>
       <c r="AC11" t="n">
-        <v>489.7711029949963</v>
+        <v>533.8710508288822</v>
       </c>
       <c r="AD11" t="n">
-        <v>395723.2026655916</v>
+        <v>431354.8936483671</v>
       </c>
       <c r="AE11" t="n">
-        <v>541445.9439626358</v>
+        <v>590198.7955245322</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.813218653116586e-06</v>
+        <v>5.319131621204889e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.537499999999999</v>
       </c>
       <c r="AH11" t="n">
-        <v>489771.1029949964</v>
+        <v>533871.0508288821</v>
       </c>
     </row>
   </sheetData>
@@ -9169,28 +9169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>285.7458019741974</v>
+        <v>315.0593175825732</v>
       </c>
       <c r="AB2" t="n">
-        <v>390.9700124761792</v>
+        <v>431.0780577525964</v>
       </c>
       <c r="AC2" t="n">
-        <v>353.6563832153107</v>
+        <v>389.9365729425418</v>
       </c>
       <c r="AD2" t="n">
-        <v>285745.8019741974</v>
+        <v>315059.3175825732</v>
       </c>
       <c r="AE2" t="n">
-        <v>390970.0124761792</v>
+        <v>431078.0577525964</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.944329015248801e-06</v>
+        <v>6.750070796073702e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.332291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>353656.3832153107</v>
+        <v>389936.5729425419</v>
       </c>
     </row>
     <row r="3">
@@ -9275,28 +9275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>278.0614925536843</v>
+        <v>307.3750081620601</v>
       </c>
       <c r="AB3" t="n">
-        <v>380.4560013192274</v>
+        <v>420.5640465956448</v>
       </c>
       <c r="AC3" t="n">
-        <v>344.1458145266711</v>
+        <v>380.4260042539022</v>
       </c>
       <c r="AD3" t="n">
-        <v>278061.4925536843</v>
+        <v>307375.0081620601</v>
       </c>
       <c r="AE3" t="n">
-        <v>380456.0013192274</v>
+        <v>420564.0465956448</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.000351810493352e-06</v>
+        <v>6.878506793591699e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.213541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>344145.8145266711</v>
+        <v>380426.0042539022</v>
       </c>
     </row>
   </sheetData>
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1053.60693593145</v>
+        <v>1121.807998222248</v>
       </c>
       <c r="AB2" t="n">
-        <v>1441.591491598898</v>
+        <v>1534.907193843685</v>
       </c>
       <c r="AC2" t="n">
-        <v>1304.008022927065</v>
+        <v>1388.41780551902</v>
       </c>
       <c r="AD2" t="n">
-        <v>1053606.93593145</v>
+        <v>1121807.998222248</v>
       </c>
       <c r="AE2" t="n">
-        <v>1441591.491598898</v>
+        <v>1534907.193843685</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.62937578752641e-06</v>
+        <v>3.193554025685623e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.940625000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>1304008.022927065</v>
+        <v>1388417.80551902</v>
       </c>
     </row>
     <row r="3">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>544.5894205488347</v>
+        <v>590.0852423608912</v>
       </c>
       <c r="AB3" t="n">
-        <v>745.1312707845101</v>
+        <v>807.3806613217673</v>
       </c>
       <c r="AC3" t="n">
-        <v>674.0169880991426</v>
+        <v>730.3253841710924</v>
       </c>
       <c r="AD3" t="n">
-        <v>544589.4205488347</v>
+        <v>590085.2423608912</v>
       </c>
       <c r="AE3" t="n">
-        <v>745131.2707845101</v>
+        <v>807380.6613217674</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.382101065455158e-06</v>
+        <v>4.668885167812172e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.798958333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>674016.9880991427</v>
+        <v>730325.3841710924</v>
       </c>
     </row>
     <row r="4">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>453.4373434015005</v>
+        <v>487.537964055451</v>
       </c>
       <c r="AB4" t="n">
-        <v>620.412977485696</v>
+        <v>667.0709510776381</v>
       </c>
       <c r="AC4" t="n">
-        <v>561.2016336695433</v>
+        <v>603.4066357467476</v>
       </c>
       <c r="AD4" t="n">
-        <v>453437.3434015005</v>
+        <v>487537.964055451</v>
       </c>
       <c r="AE4" t="n">
-        <v>620412.9774856961</v>
+        <v>667070.9510776382</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.651098117885799e-06</v>
+        <v>5.196115673054669e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>561201.6336695433</v>
+        <v>603406.6357467476</v>
       </c>
     </row>
     <row r="5">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>398.3935182705922</v>
+        <v>432.5793902705632</v>
       </c>
       <c r="AB5" t="n">
-        <v>545.0995875794077</v>
+        <v>591.8742058239991</v>
       </c>
       <c r="AC5" t="n">
-        <v>493.0760479929045</v>
+        <v>535.3865623208211</v>
       </c>
       <c r="AD5" t="n">
-        <v>398393.5182705922</v>
+        <v>432579.3902705632</v>
       </c>
       <c r="AE5" t="n">
-        <v>545099.5875794077</v>
+        <v>591874.2058239991</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.786685071480897e-06</v>
+        <v>5.461864228298286e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.8125</v>
       </c>
       <c r="AH5" t="n">
-        <v>493076.0479929046</v>
+        <v>535386.5623208211</v>
       </c>
     </row>
     <row r="6">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>367.937383283297</v>
+        <v>402.123255283268</v>
       </c>
       <c r="AB6" t="n">
-        <v>503.4281600599437</v>
+        <v>550.2027783045349</v>
       </c>
       <c r="AC6" t="n">
-        <v>455.3816830296822</v>
+        <v>497.6921973575987</v>
       </c>
       <c r="AD6" t="n">
-        <v>367937.3832832971</v>
+        <v>402123.2552832679</v>
       </c>
       <c r="AE6" t="n">
-        <v>503428.1600599437</v>
+        <v>550202.778304535</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.869250062718279e-06</v>
+        <v>5.62369047008081e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.644791666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>455381.6830296821</v>
+        <v>497692.1973575987</v>
       </c>
     </row>
     <row r="7">
@@ -10102,28 +10102,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>357.8144933135023</v>
+        <v>392.0003653134733</v>
       </c>
       <c r="AB7" t="n">
-        <v>489.5775754128838</v>
+        <v>536.352193657475</v>
       </c>
       <c r="AC7" t="n">
-        <v>442.85297874192</v>
+        <v>485.1634930698365</v>
       </c>
       <c r="AD7" t="n">
-        <v>357814.4933135023</v>
+        <v>392000.3653134733</v>
       </c>
       <c r="AE7" t="n">
-        <v>489577.5754128838</v>
+        <v>536352.1936574751</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.895372319832931e-06</v>
+        <v>5.674889733017653e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.59375</v>
       </c>
       <c r="AH7" t="n">
-        <v>442852.97874192</v>
+        <v>485163.4930698365</v>
       </c>
     </row>
     <row r="8">
@@ -10208,28 +10208,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>359.616250580993</v>
+        <v>393.802122580964</v>
       </c>
       <c r="AB8" t="n">
-        <v>492.0428191941852</v>
+        <v>538.8174374387764</v>
       </c>
       <c r="AC8" t="n">
-        <v>445.0829431167254</v>
+        <v>487.393457444642</v>
       </c>
       <c r="AD8" t="n">
-        <v>359616.250580993</v>
+        <v>393802.122580964</v>
       </c>
       <c r="AE8" t="n">
-        <v>492042.8191941852</v>
+        <v>538817.4374387765</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.895216830207248e-06</v>
+        <v>5.674584975500172e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.594791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>445082.9431167254</v>
+        <v>487393.457444642</v>
       </c>
     </row>
   </sheetData>
@@ -10505,28 +10505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1345.776555807876</v>
+        <v>1404.00603164645</v>
       </c>
       <c r="AB2" t="n">
-        <v>1841.350855127751</v>
+        <v>1921.022992873257</v>
       </c>
       <c r="AC2" t="n">
-        <v>1665.614913866514</v>
+        <v>1737.683254606138</v>
       </c>
       <c r="AD2" t="n">
-        <v>1345776.555807876</v>
+        <v>1404006.03164645</v>
       </c>
       <c r="AE2" t="n">
-        <v>1841350.855127751</v>
+        <v>1921022.992873257</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.437411447709277e-06</v>
+        <v>2.763715419517191e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.040625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1665614.913866514</v>
+        <v>1737683.254606138</v>
       </c>
     </row>
     <row r="3">
@@ -10611,28 +10611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>632.2341996222548</v>
+        <v>667.1719209288195</v>
       </c>
       <c r="AB3" t="n">
-        <v>865.0507241275242</v>
+        <v>912.8540557626476</v>
       </c>
       <c r="AC3" t="n">
-        <v>782.4914971231092</v>
+        <v>825.7325458793737</v>
       </c>
       <c r="AD3" t="n">
-        <v>632234.1996222548</v>
+        <v>667171.9209288196</v>
       </c>
       <c r="AE3" t="n">
-        <v>865050.7241275242</v>
+        <v>912854.0557626475</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.235719448344848e-06</v>
+        <v>4.298624672116035e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.097916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>782491.4971231092</v>
+        <v>825732.5458793737</v>
       </c>
     </row>
     <row r="4">
@@ -10717,28 +10717,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>509.3719792802953</v>
+        <v>544.2243597322883</v>
       </c>
       <c r="AB4" t="n">
-        <v>696.9452139570391</v>
+        <v>744.631778469965</v>
       </c>
       <c r="AC4" t="n">
-        <v>630.4297409057299</v>
+        <v>673.5651666300556</v>
       </c>
       <c r="AD4" t="n">
-        <v>509371.9792802953</v>
+        <v>544224.3597322884</v>
       </c>
       <c r="AE4" t="n">
-        <v>696945.2139570391</v>
+        <v>744631.778469965</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.521525900480789e-06</v>
+        <v>4.848145618275467e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.29375</v>
       </c>
       <c r="AH4" t="n">
-        <v>630429.7409057299</v>
+        <v>673565.1666300556</v>
       </c>
     </row>
     <row r="5">
@@ -10823,28 +10823,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>444.0093211742997</v>
+        <v>478.9469529723133</v>
       </c>
       <c r="AB5" t="n">
-        <v>607.5131415394543</v>
+        <v>655.3163507050294</v>
       </c>
       <c r="AC5" t="n">
-        <v>549.5329399609774</v>
+        <v>592.7738779360154</v>
       </c>
       <c r="AD5" t="n">
-        <v>444009.3211742996</v>
+        <v>478946.9529723133</v>
       </c>
       <c r="AE5" t="n">
-        <v>607513.1415394543</v>
+        <v>655316.3507050294</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.681339849462986e-06</v>
+        <v>5.155420390408327e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.91875</v>
       </c>
       <c r="AH5" t="n">
-        <v>549532.9399609774</v>
+        <v>592773.8779360154</v>
       </c>
     </row>
     <row r="6">
@@ -10929,28 +10929,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>417.1135597881221</v>
+        <v>452.0511915861358</v>
       </c>
       <c r="AB6" t="n">
-        <v>570.713174253637</v>
+        <v>618.5163834192119</v>
       </c>
       <c r="AC6" t="n">
-        <v>516.24510990384</v>
+        <v>559.4860478788778</v>
       </c>
       <c r="AD6" t="n">
-        <v>417113.5597881221</v>
+        <v>452051.1915861358</v>
       </c>
       <c r="AE6" t="n">
-        <v>570713.174253637</v>
+        <v>618516.383419212</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.752639113641888e-06</v>
+        <v>5.292507705335094e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>516245.1099038399</v>
+        <v>559486.0478788778</v>
       </c>
     </row>
     <row r="7">
@@ -11035,28 +11035,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>389.7619577831124</v>
+        <v>424.6995895811261</v>
       </c>
       <c r="AB7" t="n">
-        <v>533.2895057228646</v>
+        <v>581.0927148884398</v>
       </c>
       <c r="AC7" t="n">
-        <v>482.3931037731959</v>
+        <v>525.6340417482338</v>
       </c>
       <c r="AD7" t="n">
-        <v>389761.9577831124</v>
+        <v>424699.5895811261</v>
       </c>
       <c r="AE7" t="n">
-        <v>533289.5057228646</v>
+        <v>581092.7148884397</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.820586703008961e-06</v>
+        <v>5.42315074477385e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.626041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>482393.1037731959</v>
+        <v>525634.0417482338</v>
       </c>
     </row>
     <row r="8">
@@ -11141,28 +11141,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>375.69084977327</v>
+        <v>410.6284815712837</v>
       </c>
       <c r="AB8" t="n">
-        <v>514.0367949703249</v>
+        <v>561.8400041358998</v>
       </c>
       <c r="AC8" t="n">
-        <v>464.9778447135292</v>
+        <v>508.2187826885672</v>
       </c>
       <c r="AD8" t="n">
-        <v>375690.84977327</v>
+        <v>410628.4815712837</v>
       </c>
       <c r="AE8" t="n">
-        <v>514036.7949703248</v>
+        <v>561840.0041358998</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.852884660286584e-06</v>
+        <v>5.485250126749224e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.5625</v>
       </c>
       <c r="AH8" t="n">
-        <v>464977.8447135292</v>
+        <v>508218.7826885672</v>
       </c>
     </row>
     <row r="9">
@@ -11247,28 +11247,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>377.3369424220809</v>
+        <v>412.2745742200946</v>
       </c>
       <c r="AB9" t="n">
-        <v>516.2890515529103</v>
+        <v>564.0922607184854</v>
       </c>
       <c r="AC9" t="n">
-        <v>467.0151490889347</v>
+        <v>510.2560870639726</v>
       </c>
       <c r="AD9" t="n">
-        <v>377336.9424220809</v>
+        <v>412274.5742200946</v>
       </c>
       <c r="AE9" t="n">
-        <v>516289.0515529104</v>
+        <v>564092.2607184853</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.852579962576418e-06</v>
+        <v>5.484664283523041e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.563541666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>467015.1490889346</v>
+        <v>510256.0870639727</v>
       </c>
     </row>
   </sheetData>
@@ -11544,28 +11544,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2177.019853706702</v>
+        <v>2273.592015512517</v>
       </c>
       <c r="AB2" t="n">
-        <v>2978.694607179056</v>
+        <v>3110.828899425042</v>
       </c>
       <c r="AC2" t="n">
-        <v>2694.412174494024</v>
+        <v>2813.93575533958</v>
       </c>
       <c r="AD2" t="n">
-        <v>2177019.853706702</v>
+        <v>2273592.015512517</v>
       </c>
       <c r="AE2" t="n">
-        <v>2978694.607179056</v>
+        <v>3110828.899425041</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.102879746388974e-06</v>
+        <v>2.054581318037534e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.88854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2694412.174494024</v>
+        <v>2813935.75533958</v>
       </c>
     </row>
     <row r="3">
@@ -11650,28 +11650,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>800.4945337147916</v>
+        <v>848.8659554722698</v>
       </c>
       <c r="AB3" t="n">
-        <v>1095.271936354975</v>
+        <v>1161.455849600075</v>
       </c>
       <c r="AC3" t="n">
-        <v>990.7407199730732</v>
+        <v>1050.608133427766</v>
       </c>
       <c r="AD3" t="n">
-        <v>800494.5337147916</v>
+        <v>848865.9554722698</v>
       </c>
       <c r="AE3" t="n">
-        <v>1095271.936354975</v>
+        <v>1161455.849600075</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.977095758693302e-06</v>
+        <v>3.683179442801952e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.747916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>990740.7199730732</v>
+        <v>1050608.133427766</v>
       </c>
     </row>
     <row r="4">
@@ -11756,28 +11756,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>625.1490498228129</v>
+        <v>673.4351307257195</v>
       </c>
       <c r="AB4" t="n">
-        <v>855.3565095971791</v>
+        <v>921.4236557200809</v>
       </c>
       <c r="AC4" t="n">
-        <v>773.7224848216246</v>
+        <v>833.4842752443785</v>
       </c>
       <c r="AD4" t="n">
-        <v>625149.0498228129</v>
+        <v>673435.1307257195</v>
       </c>
       <c r="AE4" t="n">
-        <v>855356.509597179</v>
+        <v>921423.6557200808</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.292372315527696e-06</v>
+        <v>4.270515755584948e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.682291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>773722.4848216246</v>
+        <v>833484.2752443785</v>
       </c>
     </row>
     <row r="5">
@@ -11862,28 +11862,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>555.2793975857128</v>
+        <v>591.4727125578009</v>
       </c>
       <c r="AB5" t="n">
-        <v>759.7577689748691</v>
+        <v>809.2790592560444</v>
       </c>
       <c r="AC5" t="n">
-        <v>687.2475538306329</v>
+        <v>732.0426016709401</v>
       </c>
       <c r="AD5" t="n">
-        <v>555279.3975857128</v>
+        <v>591472.7125578009</v>
       </c>
       <c r="AE5" t="n">
-        <v>759757.7689748692</v>
+        <v>809279.0592560444</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.464568606597228e-06</v>
+        <v>4.591304385374542e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.215625</v>
       </c>
       <c r="AH5" t="n">
-        <v>687247.5538306329</v>
+        <v>732042.6016709402</v>
       </c>
     </row>
     <row r="6">
@@ -11968,28 +11968,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>492.7233710118168</v>
+        <v>529.0019373299255</v>
       </c>
       <c r="AB6" t="n">
-        <v>674.1658536393477</v>
+        <v>723.8037885731724</v>
       </c>
       <c r="AC6" t="n">
-        <v>609.8244107657258</v>
+        <v>654.7249708567457</v>
       </c>
       <c r="AD6" t="n">
-        <v>492723.3710118168</v>
+        <v>529001.9373299255</v>
       </c>
       <c r="AE6" t="n">
-        <v>674165.8536393477</v>
+        <v>723803.7885731724</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.59970813818809e-06</v>
+        <v>4.843059082878074e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.891666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>609824.4107657258</v>
+        <v>654724.9708567457</v>
       </c>
     </row>
     <row r="7">
@@ -12074,28 +12074,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>481.1054519418615</v>
+        <v>517.3840182599702</v>
       </c>
       <c r="AB7" t="n">
-        <v>658.2697042214188</v>
+        <v>707.9076391552435</v>
       </c>
       <c r="AC7" t="n">
-        <v>595.4453675378584</v>
+        <v>640.345927628878</v>
       </c>
       <c r="AD7" t="n">
-        <v>481105.4519418615</v>
+        <v>517384.0182599701</v>
       </c>
       <c r="AE7" t="n">
-        <v>658269.7042214188</v>
+        <v>707907.6391552435</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.625441998937167e-06</v>
+        <v>4.890999313632284e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.834375000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>595445.3675378584</v>
+        <v>640345.927628878</v>
       </c>
     </row>
     <row r="8">
@@ -12180,28 +12180,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>457.3419259322179</v>
+        <v>493.6204922503265</v>
       </c>
       <c r="AB8" t="n">
-        <v>625.7553995622476</v>
+        <v>675.3933344960723</v>
       </c>
       <c r="AC8" t="n">
-        <v>566.0341824812452</v>
+        <v>610.934742572265</v>
       </c>
       <c r="AD8" t="n">
-        <v>457341.9259322179</v>
+        <v>493620.4922503266</v>
       </c>
       <c r="AE8" t="n">
-        <v>625755.3995622476</v>
+        <v>675393.3344960723</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.681909441952282e-06</v>
+        <v>4.996193877115805e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.711458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>566034.1824812453</v>
+        <v>610934.742572265</v>
       </c>
     </row>
     <row r="9">
@@ -12286,28 +12286,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>437.7398258625309</v>
+        <v>474.0183921806396</v>
       </c>
       <c r="AB9" t="n">
-        <v>598.9349414632801</v>
+        <v>648.5728763971048</v>
       </c>
       <c r="AC9" t="n">
-        <v>541.7734312604939</v>
+        <v>586.6739913515136</v>
       </c>
       <c r="AD9" t="n">
-        <v>437739.8258625309</v>
+        <v>474018.3921806396</v>
       </c>
       <c r="AE9" t="n">
-        <v>598934.9414632801</v>
+        <v>648572.8763971048</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.724848226745026e-06</v>
+        <v>5.0761855764314e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.621875</v>
       </c>
       <c r="AH9" t="n">
-        <v>541773.4312604939</v>
+        <v>586673.9913515135</v>
       </c>
     </row>
     <row r="10">
@@ -12392,28 +12392,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>428.0054410903787</v>
+        <v>464.2840074084874</v>
       </c>
       <c r="AB10" t="n">
-        <v>585.6159267672745</v>
+        <v>635.2538617010993</v>
       </c>
       <c r="AC10" t="n">
-        <v>529.7255646337203</v>
+        <v>574.6261247247401</v>
       </c>
       <c r="AD10" t="n">
-        <v>428005.4410903787</v>
+        <v>464284.0074084874</v>
       </c>
       <c r="AE10" t="n">
-        <v>585615.9267672745</v>
+        <v>635253.8617010992</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.733377163450434e-06</v>
+        <v>5.092074338624223e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.604166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>529725.5646337203</v>
+        <v>574626.12472474</v>
       </c>
     </row>
     <row r="11">
@@ -12498,28 +12498,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>413.3207478591008</v>
+        <v>449.5993141772095</v>
       </c>
       <c r="AB11" t="n">
-        <v>565.5236816452971</v>
+        <v>615.1616165791219</v>
       </c>
       <c r="AC11" t="n">
-        <v>511.5508951865415</v>
+        <v>556.4514552775612</v>
       </c>
       <c r="AD11" t="n">
-        <v>413320.7478591008</v>
+        <v>449599.3141772095</v>
       </c>
       <c r="AE11" t="n">
-        <v>565523.6816452971</v>
+        <v>615161.6165791219</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.768669315334881e-06</v>
+        <v>5.157820940801425e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.532291666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>511550.8951865415</v>
+        <v>556451.4552775612</v>
       </c>
     </row>
     <row r="12">
@@ -12604,28 +12604,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>414.4116991857002</v>
+        <v>450.6902655038089</v>
       </c>
       <c r="AB12" t="n">
-        <v>567.0163693797261</v>
+        <v>616.6543043135509</v>
       </c>
       <c r="AC12" t="n">
-        <v>512.9011228985969</v>
+        <v>557.8016829896167</v>
       </c>
       <c r="AD12" t="n">
-        <v>414411.6991857002</v>
+        <v>450690.2655038089</v>
       </c>
       <c r="AE12" t="n">
-        <v>567016.3693797261</v>
+        <v>616654.3043135509</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.76852226470203e-06</v>
+        <v>5.157546996625686e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.533333333333332</v>
       </c>
       <c r="AH12" t="n">
-        <v>512901.1228985969</v>
+        <v>557801.6829896166</v>
       </c>
     </row>
   </sheetData>
@@ -12901,28 +12901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>841.5466788796023</v>
+        <v>886.0287023445894</v>
       </c>
       <c r="AB2" t="n">
-        <v>1151.441292462293</v>
+        <v>1212.303559375464</v>
       </c>
       <c r="AC2" t="n">
-        <v>1041.549351567695</v>
+        <v>1096.603009147401</v>
       </c>
       <c r="AD2" t="n">
-        <v>841546.6788796022</v>
+        <v>886028.7023445894</v>
       </c>
       <c r="AE2" t="n">
-        <v>1151441.292462293</v>
+        <v>1212303.559375464</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.840787471281724e-06</v>
+        <v>3.689853617235748e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.003125000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>1041549.351567695</v>
+        <v>1096603.009147401</v>
       </c>
     </row>
     <row r="3">
@@ -13007,28 +13007,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>470.578640014655</v>
+        <v>504.0254313365537</v>
       </c>
       <c r="AB3" t="n">
-        <v>643.8664557324493</v>
+        <v>689.6298311873638</v>
       </c>
       <c r="AC3" t="n">
-        <v>582.4167448695897</v>
+        <v>623.8125280003881</v>
       </c>
       <c r="AD3" t="n">
-        <v>470578.640014655</v>
+        <v>504025.4313365537</v>
       </c>
       <c r="AE3" t="n">
-        <v>643866.4557324493</v>
+        <v>689629.8311873638</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.548721465508988e-06</v>
+        <v>5.108905436153653e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.502083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>582416.7448695897</v>
+        <v>623812.5280003881</v>
       </c>
     </row>
     <row r="4">
@@ -13113,28 +13113,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>385.3844206763698</v>
+        <v>418.7458711436969</v>
       </c>
       <c r="AB4" t="n">
-        <v>527.2999663301122</v>
+        <v>572.9465746628291</v>
       </c>
       <c r="AC4" t="n">
-        <v>476.9751976137164</v>
+        <v>518.265357712576</v>
       </c>
       <c r="AD4" t="n">
-        <v>385384.4206763698</v>
+        <v>418745.8711436969</v>
       </c>
       <c r="AE4" t="n">
-        <v>527299.9663301122</v>
+        <v>572946.5746628291</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.7972142517973e-06</v>
+        <v>5.607008568996297e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.923958333333332</v>
       </c>
       <c r="AH4" t="n">
-        <v>476975.1976137164</v>
+        <v>518265.357712576</v>
       </c>
     </row>
     <row r="5">
@@ -13219,28 +13219,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>348.6417100618784</v>
+        <v>382.0031605292054</v>
       </c>
       <c r="AB5" t="n">
-        <v>477.0269686933753</v>
+        <v>522.6735770260922</v>
       </c>
       <c r="AC5" t="n">
-        <v>431.5001843128343</v>
+        <v>472.7903444116939</v>
       </c>
       <c r="AD5" t="n">
-        <v>348641.7100618784</v>
+        <v>382003.1605292054</v>
       </c>
       <c r="AE5" t="n">
-        <v>477026.9686933753</v>
+        <v>522673.5770260922</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.90793831022026e-06</v>
+        <v>5.828954651236041e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.698958333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>431500.1843128343</v>
+        <v>472790.3444116939</v>
       </c>
     </row>
     <row r="6">
@@ -13325,28 +13325,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>339.4542593326457</v>
+        <v>372.8157097999728</v>
       </c>
       <c r="AB6" t="n">
-        <v>464.4562932839192</v>
+        <v>510.1029016166361</v>
       </c>
       <c r="AC6" t="n">
-        <v>420.129236521403</v>
+        <v>461.4193966202625</v>
       </c>
       <c r="AD6" t="n">
-        <v>339454.2593326457</v>
+        <v>372815.7097999728</v>
       </c>
       <c r="AE6" t="n">
-        <v>464456.2932839192</v>
+        <v>510102.9016166361</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.941187345005316e-06</v>
+        <v>5.895602253517803e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.634375000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>420129.236521403</v>
+        <v>461419.3966202625</v>
       </c>
     </row>
   </sheetData>
@@ -13622,28 +13622,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>567.1200052975847</v>
+        <v>609.7010013250728</v>
       </c>
       <c r="AB2" t="n">
-        <v>775.9586108169973</v>
+        <v>834.2198081227706</v>
       </c>
       <c r="AC2" t="n">
-        <v>701.9022100653727</v>
+        <v>754.6030404703869</v>
       </c>
       <c r="AD2" t="n">
-        <v>567120.0052975847</v>
+        <v>609701.0013250727</v>
       </c>
       <c r="AE2" t="n">
-        <v>775958.6108169972</v>
+        <v>834219.8081227706</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.218594829401439e-06</v>
+        <v>4.641439129406966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.780208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>701902.2100653728</v>
+        <v>754603.0404703869</v>
       </c>
     </row>
     <row r="3">
@@ -13728,28 +13728,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>362.5771669181711</v>
+        <v>394.4276625927667</v>
       </c>
       <c r="AB3" t="n">
-        <v>496.094075553122</v>
+        <v>539.6733288798027</v>
       </c>
       <c r="AC3" t="n">
-        <v>448.7475532547393</v>
+        <v>488.1676638077877</v>
       </c>
       <c r="AD3" t="n">
-        <v>362577.1669181711</v>
+        <v>394427.6625927667</v>
       </c>
       <c r="AE3" t="n">
-        <v>496094.075553122</v>
+        <v>539673.3288798027</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.839529608738695e-06</v>
+        <v>5.940473519748161e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.079166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>448747.5532547393</v>
+        <v>488167.6638077878</v>
       </c>
     </row>
     <row r="4">
@@ -13834,28 +13834,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>310.2324345539178</v>
+        <v>342.1681815745339</v>
       </c>
       <c r="AB4" t="n">
-        <v>424.4737034457399</v>
+        <v>468.1696014250699</v>
       </c>
       <c r="AC4" t="n">
-        <v>383.9625289414622</v>
+        <v>423.4881517452229</v>
       </c>
       <c r="AD4" t="n">
-        <v>310232.4345539177</v>
+        <v>342168.1815745339</v>
       </c>
       <c r="AE4" t="n">
-        <v>424473.7034457399</v>
+        <v>468169.6014250699</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.997124744887543e-06</v>
+        <v>6.270172400243084e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.759374999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>383962.5289414622</v>
+        <v>423488.1517452229</v>
       </c>
     </row>
     <row r="5">
@@ -13940,28 +13940,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>310.9116407246614</v>
+        <v>342.8473877452776</v>
       </c>
       <c r="AB5" t="n">
-        <v>425.403023293013</v>
+        <v>469.0989212723429</v>
       </c>
       <c r="AC5" t="n">
-        <v>384.8031558068201</v>
+        <v>424.3287786105809</v>
       </c>
       <c r="AD5" t="n">
-        <v>310911.6407246614</v>
+        <v>342847.3877452776</v>
       </c>
       <c r="AE5" t="n">
-        <v>425403.023293013</v>
+        <v>469098.9212723429</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.004416212806101e-06</v>
+        <v>6.285426607121922e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.745833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>384803.1558068201</v>
+        <v>424328.7786105808</v>
       </c>
     </row>
   </sheetData>
@@ -25218,28 +25218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>426.5700440832701</v>
+        <v>457.3662892005032</v>
       </c>
       <c r="AB2" t="n">
-        <v>583.6519532569018</v>
+        <v>625.788734460747</v>
       </c>
       <c r="AC2" t="n">
-        <v>527.9490299987235</v>
+        <v>566.0643359438176</v>
       </c>
       <c r="AD2" t="n">
-        <v>426570.0440832701</v>
+        <v>457366.2892005031</v>
       </c>
       <c r="AE2" t="n">
-        <v>583651.9532569018</v>
+        <v>625788.734460747</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.536057366773376e-06</v>
+        <v>5.513022939448206e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.040625000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>527949.0299987235</v>
+        <v>566064.3359438176</v>
       </c>
     </row>
     <row r="3">
@@ -25324,28 +25324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.6540614313892</v>
+        <v>320.4502170400711</v>
       </c>
       <c r="AB3" t="n">
-        <v>396.3174654857471</v>
+        <v>438.454124220044</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.4934828148429</v>
+        <v>396.6086779787105</v>
       </c>
       <c r="AD3" t="n">
-        <v>289654.0614313891</v>
+        <v>320450.2170400711</v>
       </c>
       <c r="AE3" t="n">
-        <v>396317.4654857471</v>
+        <v>438454.124220044</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.019475088437626e-06</v>
+        <v>6.563903342939077e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.913541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>358493.482814843</v>
+        <v>396608.6779787105</v>
       </c>
     </row>
     <row r="4">
@@ -25430,28 +25430,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>290.794503694404</v>
+        <v>321.5906593030859</v>
       </c>
       <c r="AB4" t="n">
-        <v>397.8778689027658</v>
+        <v>440.0145276370626</v>
       </c>
       <c r="AC4" t="n">
-        <v>359.9049635197813</v>
+        <v>398.0201586836488</v>
       </c>
       <c r="AD4" t="n">
-        <v>290794.503694404</v>
+        <v>321590.6593030859</v>
       </c>
       <c r="AE4" t="n">
-        <v>397877.8689027659</v>
+        <v>440014.5276370626</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.023932131261481e-06</v>
+        <v>6.573592311198212e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.905208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>359904.9635197813</v>
+        <v>398020.1586836488</v>
       </c>
     </row>
   </sheetData>
@@ -25727,28 +25727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>263.5688114667365</v>
+        <v>292.1912843444298</v>
       </c>
       <c r="AB2" t="n">
-        <v>360.6264756841005</v>
+        <v>399.7890058097445</v>
       </c>
       <c r="AC2" t="n">
-        <v>326.2087909872467</v>
+        <v>361.6337042026555</v>
       </c>
       <c r="AD2" t="n">
-        <v>263568.8114667365</v>
+        <v>292191.2843444298</v>
       </c>
       <c r="AE2" t="n">
-        <v>360626.4756841005</v>
+        <v>399789.0058097445</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.930057029330197e-06</v>
+        <v>6.969219648922171e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.540624999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>326208.7909872467</v>
+        <v>361633.7042026555</v>
       </c>
     </row>
   </sheetData>
@@ -26024,28 +26024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1190.510257811836</v>
+        <v>1248.041287971583</v>
       </c>
       <c r="AB2" t="n">
-        <v>1628.90865634394</v>
+        <v>1707.625149898427</v>
       </c>
       <c r="AC2" t="n">
-        <v>1473.447900370131</v>
+        <v>1544.651802259071</v>
       </c>
       <c r="AD2" t="n">
-        <v>1190510.257811836</v>
+        <v>1248041.287971583</v>
       </c>
       <c r="AE2" t="n">
-        <v>1628908.65634394</v>
+        <v>1707625.149898427</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.531619340998037e-06</v>
+        <v>2.972227096163248e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.46458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1473447.900370131</v>
+        <v>1544651.802259071</v>
       </c>
     </row>
     <row r="3">
@@ -26130,28 +26130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>581.9230796809624</v>
+        <v>627.930764031005</v>
       </c>
       <c r="AB3" t="n">
-        <v>796.2128302538854</v>
+        <v>859.162573697397</v>
       </c>
       <c r="AC3" t="n">
-        <v>720.2233952261796</v>
+        <v>777.1653035059622</v>
       </c>
       <c r="AD3" t="n">
-        <v>581923.0796809624</v>
+        <v>627930.764031005</v>
       </c>
       <c r="AE3" t="n">
-        <v>796212.8302538854</v>
+        <v>859162.573697397</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.307430544264273e-06</v>
+        <v>4.477749400649394e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.946874999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>720223.3952261796</v>
+        <v>777165.3035059622</v>
       </c>
     </row>
     <row r="4">
@@ -26236,28 +26236,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>480.6233567294753</v>
+        <v>515.1078742869154</v>
       </c>
       <c r="AB4" t="n">
-        <v>657.6100802832924</v>
+        <v>704.7933185549252</v>
       </c>
       <c r="AC4" t="n">
-        <v>594.8486971825988</v>
+        <v>637.5288334156777</v>
       </c>
       <c r="AD4" t="n">
-        <v>480623.3567294753</v>
+        <v>515107.8742869154</v>
       </c>
       <c r="AE4" t="n">
-        <v>657610.0802832925</v>
+        <v>704793.3185549253</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.586550243337051e-06</v>
+        <v>5.019403002461743e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.196874999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>594848.6971825988</v>
+        <v>637528.8334156777</v>
       </c>
     </row>
     <row r="5">
@@ -26342,28 +26342,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>413.0694767958643</v>
+        <v>447.639245699325</v>
       </c>
       <c r="AB5" t="n">
-        <v>565.1798814912801</v>
+        <v>612.479764415562</v>
       </c>
       <c r="AC5" t="n">
-        <v>511.2399068366971</v>
+        <v>554.0255553204884</v>
       </c>
       <c r="AD5" t="n">
-        <v>413069.4767958643</v>
+        <v>447639.2456993251</v>
       </c>
       <c r="AE5" t="n">
-        <v>565179.88149128</v>
+        <v>612479.764415562</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.763192698979582e-06</v>
+        <v>5.362191500190838e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AH5" t="n">
-        <v>511239.9068366971</v>
+        <v>554025.5553204884</v>
       </c>
     </row>
     <row r="6">
@@ -26448,28 +26448,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>392.8802357623496</v>
+        <v>427.4500046658102</v>
       </c>
       <c r="AB6" t="n">
-        <v>537.5560712227723</v>
+        <v>584.8559541470543</v>
       </c>
       <c r="AC6" t="n">
-        <v>486.2524742499545</v>
+        <v>529.0381227337457</v>
       </c>
       <c r="AD6" t="n">
-        <v>392880.2357623496</v>
+        <v>427450.0046658102</v>
       </c>
       <c r="AE6" t="n">
-        <v>537556.0712227722</v>
+        <v>584855.9541470542</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.809815228648298e-06</v>
+        <v>5.452666164661148e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.704166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>486252.4742499545</v>
+        <v>529038.1227337457</v>
       </c>
     </row>
     <row r="7">
@@ -26554,28 +26554,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>368.7504851015741</v>
+        <v>403.3202540050348</v>
       </c>
       <c r="AB7" t="n">
-        <v>504.5406818392308</v>
+        <v>551.8405647635129</v>
       </c>
       <c r="AC7" t="n">
-        <v>456.3880272917884</v>
+        <v>499.1736757755795</v>
       </c>
       <c r="AD7" t="n">
-        <v>368750.4851015741</v>
+        <v>403320.2540050348</v>
       </c>
       <c r="AE7" t="n">
-        <v>504540.6818392308</v>
+        <v>551840.5647635129</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.867516379228393e-06</v>
+        <v>5.56463975930262e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.589583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>456388.0272917884</v>
+        <v>499173.6757755795</v>
       </c>
     </row>
     <row r="8">
@@ -26660,28 +26660,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>367.2169176175084</v>
+        <v>401.7866865209692</v>
       </c>
       <c r="AB8" t="n">
-        <v>502.4423871513097</v>
+        <v>549.7422700755917</v>
       </c>
       <c r="AC8" t="n">
-        <v>454.4899909039073</v>
+        <v>497.2756393876986</v>
       </c>
       <c r="AD8" t="n">
-        <v>367216.9176175084</v>
+        <v>401786.6865209691</v>
       </c>
       <c r="AE8" t="n">
-        <v>502442.3871513098</v>
+        <v>549742.2700755917</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.875671475177047e-06</v>
+        <v>5.580465360678616e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.573958333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>454489.9909039073</v>
+        <v>497275.6393876986</v>
       </c>
     </row>
   </sheetData>
@@ -26957,28 +26957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1925.727032985394</v>
+        <v>1997.648106718692</v>
       </c>
       <c r="AB2" t="n">
-        <v>2634.864683611341</v>
+        <v>2733.270269627079</v>
       </c>
       <c r="AC2" t="n">
-        <v>2383.396896263284</v>
+        <v>2472.410791262787</v>
       </c>
       <c r="AD2" t="n">
-        <v>1925727.032985394</v>
+        <v>1997648.106718692</v>
       </c>
       <c r="AE2" t="n">
-        <v>2634864.683611341</v>
+        <v>2733270.269627078</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.18263161284319e-06</v>
+        <v>2.2190807683976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.059375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2383396.896263284</v>
+        <v>2472410.791262787</v>
       </c>
     </row>
     <row r="3">
@@ -27063,28 +27063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>752.712745955185</v>
+        <v>800.660068771683</v>
       </c>
       <c r="AB3" t="n">
-        <v>1029.89478635858</v>
+        <v>1095.498428722706</v>
       </c>
       <c r="AC3" t="n">
-        <v>931.6030734149274</v>
+        <v>990.9455962271113</v>
       </c>
       <c r="AD3" t="n">
-        <v>752712.745955185</v>
+        <v>800660.068771683</v>
       </c>
       <c r="AE3" t="n">
-        <v>1029894.78635858</v>
+        <v>1095498.428722705</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.043064317122155e-06</v>
+        <v>3.833590008494299e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.560416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>931603.0734149273</v>
+        <v>990945.5962271113</v>
       </c>
     </row>
     <row r="4">
@@ -27169,28 +27169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>592.7088069774276</v>
+        <v>628.7546399443726</v>
       </c>
       <c r="AB4" t="n">
-        <v>810.9703381736148</v>
+        <v>860.2898370689068</v>
       </c>
       <c r="AC4" t="n">
-        <v>733.5724673023426</v>
+        <v>778.1849824434191</v>
       </c>
       <c r="AD4" t="n">
-        <v>592708.8069774276</v>
+        <v>628754.6399443726</v>
       </c>
       <c r="AE4" t="n">
-        <v>810970.3381736148</v>
+        <v>860289.8370689068</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.352363407441976e-06</v>
+        <v>4.41395641808274e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.565625</v>
       </c>
       <c r="AH4" t="n">
-        <v>733572.4673023426</v>
+        <v>778184.9824434192</v>
       </c>
     </row>
     <row r="5">
@@ -27275,28 +27275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>530.617791130462</v>
+        <v>566.493031896815</v>
       </c>
       <c r="AB5" t="n">
-        <v>726.0146710295048</v>
+        <v>775.1007581499499</v>
       </c>
       <c r="AC5" t="n">
-        <v>656.7248497944388</v>
+        <v>701.1262296528645</v>
       </c>
       <c r="AD5" t="n">
-        <v>530617.7911304621</v>
+        <v>566493.0318968149</v>
       </c>
       <c r="AE5" t="n">
-        <v>726014.6710295049</v>
+        <v>775100.75814995</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.513685272383475e-06</v>
+        <v>4.716659511866163e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.144791666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>656724.8497944388</v>
+        <v>701126.2296528645</v>
       </c>
     </row>
     <row r="6">
@@ -27381,28 +27381,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>478.739474962476</v>
+        <v>514.6999670748494</v>
       </c>
       <c r="AB6" t="n">
-        <v>655.0324701386861</v>
+        <v>704.2352019117803</v>
       </c>
       <c r="AC6" t="n">
-        <v>592.5170905324951</v>
+        <v>637.0239826416329</v>
       </c>
       <c r="AD6" t="n">
-        <v>478739.4749624761</v>
+        <v>514699.9670748494</v>
       </c>
       <c r="AE6" t="n">
-        <v>655032.4701386861</v>
+        <v>704235.2019117803</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.624297506984906e-06</v>
+        <v>4.924211449331636e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.885416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>592517.0905324951</v>
+        <v>637023.9826416329</v>
       </c>
     </row>
     <row r="7">
@@ -27487,28 +27487,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>458.7270640291764</v>
+        <v>494.6875561415498</v>
       </c>
       <c r="AB7" t="n">
-        <v>627.6506066144862</v>
+        <v>676.8533383875805</v>
       </c>
       <c r="AC7" t="n">
-        <v>567.7485136323579</v>
+        <v>612.2554057414958</v>
       </c>
       <c r="AD7" t="n">
-        <v>458727.0640291764</v>
+        <v>494687.5561415498</v>
       </c>
       <c r="AE7" t="n">
-        <v>627650.6066144862</v>
+        <v>676853.3383875805</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.672486483185262e-06</v>
+        <v>5.014632869809221e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.779166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>567748.5136323579</v>
+        <v>612255.4057414958</v>
       </c>
     </row>
     <row r="8">
@@ -27593,28 +27593,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>435.5556981900291</v>
+        <v>471.5161903024025</v>
       </c>
       <c r="AB8" t="n">
-        <v>595.9465216248507</v>
+        <v>645.149253397945</v>
       </c>
       <c r="AC8" t="n">
-        <v>539.0702220171706</v>
+        <v>583.5771141263084</v>
       </c>
       <c r="AD8" t="n">
-        <v>435555.6981900291</v>
+        <v>471516.1903024025</v>
       </c>
       <c r="AE8" t="n">
-        <v>595946.5216248507</v>
+        <v>645149.253397945</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.727792600485978e-06</v>
+        <v>5.118408838541957e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.662500000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>539070.2220171706</v>
+        <v>583577.1141263084</v>
       </c>
     </row>
     <row r="9">
@@ -27699,28 +27699,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>415.6609722643936</v>
+        <v>451.621464376767</v>
       </c>
       <c r="AB9" t="n">
-        <v>568.7256799200329</v>
+        <v>617.9284116931271</v>
       </c>
       <c r="AC9" t="n">
-        <v>514.4472992399692</v>
+        <v>558.9541913491071</v>
       </c>
       <c r="AD9" t="n">
-        <v>415660.9722643936</v>
+        <v>451621.464376767</v>
       </c>
       <c r="AE9" t="n">
-        <v>568725.679920033</v>
+        <v>617928.4116931271</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.769309256904746e-06</v>
+        <v>5.196310370030338e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.577083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>514447.2992399692</v>
+        <v>558954.1913491071</v>
       </c>
     </row>
     <row r="10">
@@ -27805,28 +27805,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>405.7939352356915</v>
+        <v>441.754427348065</v>
       </c>
       <c r="AB10" t="n">
-        <v>555.2251645544112</v>
+        <v>604.4278963275054</v>
       </c>
       <c r="AC10" t="n">
-        <v>502.2352541127502</v>
+        <v>546.742146221888</v>
       </c>
       <c r="AD10" t="n">
-        <v>405793.9352356915</v>
+        <v>441754.427348065</v>
       </c>
       <c r="AE10" t="n">
-        <v>555225.1645544112</v>
+        <v>604427.8963275055</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.781319432511603e-06</v>
+        <v>5.218846170210906e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.553125000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>502235.2541127502</v>
+        <v>546742.146221888</v>
       </c>
     </row>
     <row r="11">
@@ -27911,28 +27911,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>405.0871541122096</v>
+        <v>441.0476462245829</v>
       </c>
       <c r="AB11" t="n">
-        <v>554.2581154402806</v>
+        <v>603.4608472133748</v>
       </c>
       <c r="AC11" t="n">
-        <v>501.3604988088102</v>
+        <v>545.8673909179481</v>
       </c>
       <c r="AD11" t="n">
-        <v>405087.1541122096</v>
+        <v>441047.6462245829</v>
       </c>
       <c r="AE11" t="n">
-        <v>554258.1154402805</v>
+        <v>603460.8472133748</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.78828829983904e-06</v>
+        <v>5.231922498710742e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.539583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>501360.4988088103</v>
+        <v>545867.3909179481</v>
       </c>
     </row>
   </sheetData>
@@ -28208,28 +28208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>260.5566717463939</v>
+        <v>288.0373401446451</v>
       </c>
       <c r="AB2" t="n">
-        <v>356.5051332325018</v>
+        <v>394.1053960965147</v>
       </c>
       <c r="AC2" t="n">
-        <v>322.4807836748881</v>
+        <v>356.4925302234599</v>
       </c>
       <c r="AD2" t="n">
-        <v>260556.6717463939</v>
+        <v>288037.3401446451</v>
       </c>
       <c r="AE2" t="n">
-        <v>356505.1332325018</v>
+        <v>394105.3960965147</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.737055028088371e-06</v>
+        <v>6.845166911424791e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.251041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>322480.7836748881</v>
+        <v>356492.5302234599</v>
       </c>
     </row>
   </sheetData>
@@ -28505,28 +28505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>655.3874179966456</v>
+        <v>698.5579545479964</v>
       </c>
       <c r="AB2" t="n">
-        <v>896.72997895527</v>
+        <v>955.7978116144848</v>
       </c>
       <c r="AC2" t="n">
-        <v>811.1473283322084</v>
+        <v>864.5778099446514</v>
       </c>
       <c r="AD2" t="n">
-        <v>655387.4179966456</v>
+        <v>698557.9545479964</v>
       </c>
       <c r="AE2" t="n">
-        <v>896729.97895527</v>
+        <v>955797.8116144848</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.082235044169268e-06</v>
+        <v>4.287912182373805e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.168750000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>811147.3283322084</v>
+        <v>864577.8099446514</v>
       </c>
     </row>
     <row r="3">
@@ -28611,28 +28611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>401.0791011848506</v>
+        <v>433.4356907618588</v>
       </c>
       <c r="AB3" t="n">
-        <v>548.7741206022524</v>
+        <v>593.0458339335013</v>
       </c>
       <c r="AC3" t="n">
-        <v>496.3998887412884</v>
+        <v>536.4463718879427</v>
       </c>
       <c r="AD3" t="n">
-        <v>401079.1011848506</v>
+        <v>433435.6907618588</v>
       </c>
       <c r="AE3" t="n">
-        <v>548774.1206022524</v>
+        <v>593045.8339335013</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.727269035579244e-06</v>
+        <v>5.61622001080895e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.237500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>496399.8887412884</v>
+        <v>536446.3718879428</v>
       </c>
     </row>
     <row r="4">
@@ -28717,28 +28717,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>323.4026821632626</v>
+        <v>355.8445230862912</v>
       </c>
       <c r="AB4" t="n">
-        <v>442.4938172551629</v>
+        <v>486.882175239061</v>
       </c>
       <c r="AC4" t="n">
-        <v>400.2628283803024</v>
+        <v>440.414823777669</v>
       </c>
       <c r="AD4" t="n">
-        <v>323402.6821632626</v>
+        <v>355844.5230862913</v>
       </c>
       <c r="AE4" t="n">
-        <v>442493.8172551629</v>
+        <v>486882.175239061</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.977280944654858e-06</v>
+        <v>6.131065399501155e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.713541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>400262.8283803024</v>
+        <v>440414.8237776691</v>
       </c>
     </row>
     <row r="5">
@@ -28823,28 +28823,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>320.1509902323409</v>
+        <v>352.5928311553697</v>
       </c>
       <c r="AB5" t="n">
-        <v>438.0447089007524</v>
+        <v>482.4330668846505</v>
       </c>
       <c r="AC5" t="n">
-        <v>396.2383366828741</v>
+        <v>436.3903320802407</v>
       </c>
       <c r="AD5" t="n">
-        <v>320150.9902323409</v>
+        <v>352592.8311553696</v>
       </c>
       <c r="AE5" t="n">
-        <v>438044.7089007524</v>
+        <v>482433.0668846505</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.982179936994681e-06</v>
+        <v>6.141153813388004e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.704166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>396238.3366828741</v>
+        <v>436390.3320802407</v>
       </c>
     </row>
   </sheetData>
@@ -29120,28 +29120,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>942.706791820026</v>
+        <v>998.8427362633017</v>
       </c>
       <c r="AB2" t="n">
-        <v>1289.85302185659</v>
+        <v>1366.660697586963</v>
       </c>
       <c r="AC2" t="n">
-        <v>1166.751259770683</v>
+        <v>1236.228518729599</v>
       </c>
       <c r="AD2" t="n">
-        <v>942706.791820026</v>
+        <v>998842.7362633017</v>
       </c>
       <c r="AE2" t="n">
-        <v>1289853.02185659</v>
+        <v>1366660.697586963</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.731335840816049e-06</v>
+        <v>3.430095059984919e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.459375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1166751.259770683</v>
+        <v>1236228.518729599</v>
       </c>
     </row>
     <row r="3">
@@ -29226,28 +29226,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>506.8797651220319</v>
+        <v>551.8396535825545</v>
       </c>
       <c r="AB3" t="n">
-        <v>693.5352565969744</v>
+        <v>755.0513594789526</v>
       </c>
       <c r="AC3" t="n">
-        <v>627.3452250902045</v>
+        <v>682.9903174515192</v>
       </c>
       <c r="AD3" t="n">
-        <v>506879.7651220319</v>
+        <v>551839.6535825545</v>
       </c>
       <c r="AE3" t="n">
-        <v>693535.2565969743</v>
+        <v>755051.3594789526</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.463836175211433e-06</v>
+        <v>4.881313084364663e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.646875000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>627345.2250902045</v>
+        <v>682990.3174515192</v>
       </c>
     </row>
     <row r="4">
@@ -29332,28 +29332,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>425.5388454999488</v>
+        <v>459.2375161402489</v>
       </c>
       <c r="AB4" t="n">
-        <v>582.2410218619307</v>
+        <v>628.3490297124134</v>
       </c>
       <c r="AC4" t="n">
-        <v>526.6727559158339</v>
+        <v>568.380280210062</v>
       </c>
       <c r="AD4" t="n">
-        <v>425538.8454999488</v>
+        <v>459237.5161402489</v>
       </c>
       <c r="AE4" t="n">
-        <v>582241.0218619307</v>
+        <v>628349.0297124134</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.72089521078483e-06</v>
+        <v>5.390594361432891e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.01875</v>
       </c>
       <c r="AH4" t="n">
-        <v>526672.755915834</v>
+        <v>568380.2802100619</v>
       </c>
     </row>
     <row r="5">
@@ -29438,28 +29438,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>377.7458087866616</v>
+        <v>411.5297307729822</v>
       </c>
       <c r="AB5" t="n">
-        <v>516.8484805508405</v>
+        <v>563.0731330539724</v>
       </c>
       <c r="AC5" t="n">
-        <v>467.521186968466</v>
+        <v>509.3342235134061</v>
       </c>
       <c r="AD5" t="n">
-        <v>377745.8087866616</v>
+        <v>411529.7307729822</v>
       </c>
       <c r="AE5" t="n">
-        <v>516848.4805508405</v>
+        <v>563073.1330539724</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.829064395172901e-06</v>
+        <v>5.604897430927047e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.788541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>467521.186968466</v>
+        <v>509334.2235134061</v>
       </c>
     </row>
     <row r="6">
@@ -29544,28 +29544,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>349.2623175250403</v>
+        <v>383.0462395113609</v>
       </c>
       <c r="AB6" t="n">
-        <v>477.8761112037423</v>
+        <v>524.1007637068742</v>
       </c>
       <c r="AC6" t="n">
-        <v>432.2682858537909</v>
+        <v>474.0813223987311</v>
       </c>
       <c r="AD6" t="n">
-        <v>349262.3175250402</v>
+        <v>383046.2395113609</v>
       </c>
       <c r="AE6" t="n">
-        <v>477876.1112037423</v>
+        <v>524100.7637068742</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.912549623239857e-06</v>
+        <v>5.770297038341866e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.622916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>432268.2858537909</v>
+        <v>474081.3223987311</v>
       </c>
     </row>
     <row r="7">
@@ -29650,28 +29650,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>349.4856145948005</v>
+        <v>383.2695365811211</v>
       </c>
       <c r="AB7" t="n">
-        <v>478.1816361057598</v>
+        <v>524.4062886088916</v>
       </c>
       <c r="AC7" t="n">
-        <v>432.5446518879667</v>
+        <v>474.3576884329069</v>
       </c>
       <c r="AD7" t="n">
-        <v>349485.6145948005</v>
+        <v>383269.5365811212</v>
       </c>
       <c r="AE7" t="n">
-        <v>478181.6361057598</v>
+        <v>524406.2886088917</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.917266302791663e-06</v>
+        <v>5.779641648930273e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.614583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>432544.6518879667</v>
+        <v>474357.6884329069</v>
       </c>
     </row>
   </sheetData>
